--- a/public/uploads/b4.xlsx
+++ b/public/uploads/b4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omeryazar/Code/express_crash_course/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C90846F-580A-4847-8626-A80E6354148F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60350F-CA47-7640-82D5-8D4071F46749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15960" xr2:uid="{609DDBC5-C5D8-1C4C-8F02-2A6FDDB96A99}"/>
   </bookViews>
@@ -65,14 +65,14 @@
     <t>B</t>
   </si>
   <si>
-    <t>ahmet@ahmetyilmaz.com</t>
+    <t>ahmet@ahmetyilmaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +83,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,10 +113,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -117,8 +126,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,7 +447,7 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +485,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1">
@@ -583,6 +596,9 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1E2C9ED4-77F0-0540-A6AA-F45FD3E4D51D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>